--- a/data_files/temoa_utopia_test_run_model/test_run.xlsx
+++ b/data_files/temoa_utopia_test_run_model/test_run.xlsx
@@ -2425,7 +2425,7 @@
         <v>6.039999999999999</v>
       </c>
       <c r="G7">
-        <v>6.929999999999999</v>
+        <v>6.93</v>
       </c>
     </row>
   </sheetData>

--- a/data_files/temoa_utopia_test_run_model/test_run.xlsx
+++ b/data_files/temoa_utopia_test_run_model/test_run.xlsx
@@ -2425,7 +2425,7 @@
         <v>6.039999999999999</v>
       </c>
       <c r="G7">
-        <v>6.93</v>
+        <v>6.929999999999999</v>
       </c>
     </row>
   </sheetData>
